--- a/CaseAndFatalityDemographicsData/2021-03-05.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-03-05.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdavis197\Desktop\Leadership Reports\Reports to Send 2.25.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdavis197\Desktop\Leadership Reports\Reports to Send 3.4.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F6076BC-600D-4A20-B6B6-07041FFE551F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1DD810B-8DB0-4356-8F5F-7FDB603263F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="806" firstSheet="3" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="806" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBE98AD-F551-4399-A212-2161860B6EB7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -573,11 +573,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$15</f>
-        <v>3.5122132244768127E-3</v>
+        <v>3.5247524752475248E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -585,11 +585,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.6765848033823277E-2</v>
+        <v>1.6752475247524753E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -597,11 +597,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>3423</v>
+        <v>3446</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>4.5367191952392943E-2</v>
+        <v>4.5491749174917495E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,11 +609,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>15049</v>
+        <v>15119</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>0.19945395024585494</v>
+        <v>0.19959075907590759</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -621,11 +621,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>16661</v>
+        <v>16730</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.22081880955852143</v>
+        <v>0.22085808580858085</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -633,11 +633,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>14564</v>
+        <v>14622</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>0.19302593736332188</v>
+        <v>0.19302970297029703</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -645,11 +645,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>12225</v>
+        <v>12266</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>0.1620256855442605</v>
+        <v>0.16192739273927392</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -657,11 +657,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>4397</v>
+        <v>4407</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" si="0"/>
-        <v>5.8276232256696398E-2</v>
+        <v>5.8178217821782181E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -669,11 +669,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>2956</v>
+        <v>2963</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>3.9177744496428142E-2</v>
+        <v>3.9115511551155113E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -681,11 +681,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>1741</v>
+        <v>1747</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>2.3074578203072193E-2</v>
+        <v>2.3062706270627061E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -693,11 +693,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>1.5056129143417583E-2</v>
+        <v>1.5036303630363037E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -705,11 +705,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>1755</v>
+        <v>1762</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>2.3260129090403044E-2</v>
+        <v>2.3260726072607259E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -717,11 +717,11 @@
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="0"/>
-        <v>1.8555088733085049E-4</v>
+        <v>1.7161716171617162E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>75451</v>
+        <v>75750</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
@@ -747,7 +747,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -768,11 +768,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="4">
-        <v>25213</v>
+        <v>25349</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$5</f>
-        <v>0.33416389444805239</v>
+        <v>0.33464026402640262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,11 +780,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="4">
-        <v>49320</v>
+        <v>49491</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.65366926879696752</v>
+        <v>0.65334653465346537</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -792,11 +792,11 @@
         <v>18</v>
       </c>
       <c r="B4" s="4">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>1.2166836754980053E-2</v>
+        <v>1.2013201320132014E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>75451</v>
+        <v>75750</v>
       </c>
       <c r="C5" s="11">
         <f t="shared" si="0"/>
@@ -822,7 +822,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -846,11 +846,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="4">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$8</f>
-        <v>1.2378894911929597E-2</v>
+        <v>1.2316831683168317E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -858,11 +858,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="4">
-        <v>12626</v>
+        <v>12672</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.16734039310280843</v>
+        <v>0.1672871287128713</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -870,11 +870,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="4">
-        <v>27662</v>
+        <v>27728</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>0.36662204609614185</v>
+        <v>0.36604620462046206</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -882,11 +882,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="4">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>5.5930338895442073E-3</v>
+        <v>5.6501650165016503E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -894,11 +894,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>25415</v>
+        <v>25581</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.33684112867954036</v>
+        <v>0.33770297029702973</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -906,11 +906,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <v>8392</v>
+        <v>8408</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>0.11122450332003551</v>
+        <v>0.110996699669967</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>
-        <v>75451</v>
+        <v>75750</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
@@ -936,7 +936,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,7 +964,7 @@
       </c>
       <c r="C2" s="12">
         <f>B2/$B$15</f>
-        <v>1.4092777451556076E-4</v>
+        <v>1.3594960801196357E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -972,11 +972,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.1139166177334116E-4</v>
+        <v>2.2658268001993928E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -984,11 +984,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>6.8115091015854374E-4</v>
+        <v>7.0240630806181177E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -996,11 +996,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>4.8385202583675867E-3</v>
+        <v>4.8941858884306881E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1008,11 +1008,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>674</v>
+        <v>700</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>1.5830886670581325E-2</v>
+        <v>1.586078760139575E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1020,11 +1020,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>1990</v>
+        <v>2075</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>4.6741045214327655E-2</v>
+        <v>4.7015906104137396E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1032,11 +1032,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>4604</v>
+        <v>4796</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>0.10813857897827363</v>
+        <v>0.10866905333756288</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1044,11 +1044,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>3882</v>
+        <v>4042</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" si="0"/>
-        <v>9.1180270111567818E-2</v>
+        <v>9.158471926405945E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1056,11 +1056,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>5019</v>
+        <v>5238</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>0.11788608338226658</v>
+        <v>0.1186840077944442</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1068,11 +1068,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>5659</v>
+        <v>5891</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>0.13291837933059308</v>
+        <v>0.13347985679974622</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1080,11 +1080,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>5699</v>
+        <v>5913</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>0.13385789782736349</v>
+        <v>0.13397833869579009</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1092,11 +1092,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>14798</v>
+        <v>15216</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>0.34757486788021141</v>
+        <v>0.34476820591833962</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B15" s="8">
         <f>SUM(B2:B14)</f>
-        <v>42575</v>
+        <v>44134</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" si="0"/>
@@ -1155,11 +1155,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="7">
-        <v>17847</v>
+        <v>18487</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$5</f>
-        <v>0.41918966529653551</v>
+        <v>0.41888340055286172</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1167,11 +1167,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="7">
-        <v>24727</v>
+        <v>25646</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58078684674104519</v>
+        <v>0.58109394117913626</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>2.3487962419260128E-5</v>
+        <v>2.2658268001993928E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>42575</v>
+        <v>44134</v>
       </c>
       <c r="C5" s="16">
         <f t="shared" si="0"/>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1233,11 +1233,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="10">
-        <v>858</v>
+        <v>898</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$8</f>
-        <v>2.0152671755725191E-2</v>
+        <v>2.0347124665790545E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1245,11 +1245,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="9">
-        <v>4074</v>
+        <v>4252</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>9.5689958896065769E-2</v>
+        <v>9.6342955544478179E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1257,11 +1257,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="10">
-        <v>19735</v>
+        <v>20453</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>0.46353493834409865</v>
+        <v>0.46342955544478182</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1269,11 +1269,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="10">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>5.2143276570757483E-3</v>
+        <v>5.2340599084605977E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1281,11 +1281,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>17662</v>
+        <v>18276</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.4148443922489724</v>
+        <v>0.41410250600444104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>5.6371109806224306E-4</v>
+        <v>5.4379843204785427E-4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>42575</v>
+        <v>44134</v>
       </c>
       <c r="C8" s="16">
         <f t="shared" si="0"/>
